--- a/classfiers/chain/knn/chain-knn-results.xlsx
+++ b/classfiers/chain/knn/chain-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7445652173913044</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9978165938864629</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6579330422125182</v>
+        <v>0.9942028985507246</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.4821428571428571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5942857142857143</v>
+        <v>0.3690909090909091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8644832605531295</v>
+        <v>0.7444202898550725</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/chain/knn/chain-knn-results.xlsx
+++ b/classfiers/chain/knn/chain-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.8665384615384615</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7445652173913044</v>
+        <v>0.913846153846154</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9942028985507246</v>
+        <v>0.8324999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9970833333333333</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4821428571428571</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4448717948717949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3690909090909091</v>
+        <v>0.5524269005847953</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7444202898550725</v>
+        <v>0.9219935897435898</v>
       </c>
     </row>
   </sheetData>
